--- a/poblacionCABA.xlsx
+++ b/poblacionCABA.xlsx
@@ -8,15 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Henry\PROYI2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2047E014-AE01-46D6-A269-FDB03EEE96AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C99969C-BF5A-4C93-B5CE-190C9F07B7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="QdKRu2ktIjrdUmmrtWFexat+vLJkM4127/n/smnthXw="/>
     </ext>
@@ -25,16 +36,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Comuna</t>
+    <t>ANO</t>
+  </si>
+  <si>
+    <t>POBLACION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -42,9 +56,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -88,15 +112,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -312,385 +335,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4285CCA-C54A-4245-8A2E-2021DDA14FB1}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2017</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2018</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2019</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2020</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2021</v>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>2016</v>
       </c>
       <c r="B2" s="3">
-        <v>252053</v>
-      </c>
-      <c r="C2" s="3">
-        <v>253271</v>
-      </c>
-      <c r="D2" s="3">
-        <v>254408</v>
-      </c>
-      <c r="E2" s="3">
-        <v>255457</v>
-      </c>
-      <c r="F2" s="3">
-        <v>256405</v>
-      </c>
-      <c r="G2" s="3">
-        <v>257235</v>
+        <v>3059122</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>2017</v>
       </c>
       <c r="B3" s="3">
-        <v>149848</v>
-      </c>
-      <c r="C3" s="3">
-        <v>149720</v>
-      </c>
-      <c r="D3" s="3">
-        <v>149607</v>
-      </c>
-      <c r="E3" s="3">
-        <v>149510</v>
-      </c>
-      <c r="F3" s="3">
-        <v>149430</v>
-      </c>
-      <c r="G3" s="3">
-        <v>149371</v>
+        <v>3063728</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2018</v>
       </c>
       <c r="B4" s="3">
-        <v>192573</v>
-      </c>
-      <c r="C4" s="3">
-        <v>192763</v>
-      </c>
-      <c r="D4" s="3">
-        <v>192945</v>
-      </c>
-      <c r="E4" s="3">
-        <v>193115</v>
-      </c>
-      <c r="F4" s="3">
-        <v>193276</v>
-      </c>
-      <c r="G4" s="3">
-        <v>193425</v>
+        <v>3068043</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>2019</v>
       </c>
       <c r="B5" s="3">
-        <v>238303</v>
-      </c>
-      <c r="C5" s="3">
-        <v>238809</v>
-      </c>
-      <c r="D5" s="3">
-        <v>239279</v>
-      </c>
-      <c r="E5" s="3">
-        <v>239712</v>
-      </c>
-      <c r="F5" s="3">
-        <v>240100</v>
-      </c>
-      <c r="G5" s="3">
-        <v>240437</v>
+        <v>3072029</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>2020</v>
       </c>
       <c r="B6" s="3">
-        <v>186740</v>
-      </c>
-      <c r="C6" s="3">
-        <v>186956</v>
-      </c>
-      <c r="D6" s="3">
-        <v>187159</v>
-      </c>
-      <c r="E6" s="3">
-        <v>187348</v>
-      </c>
-      <c r="F6" s="3">
-        <v>187518</v>
-      </c>
-      <c r="G6" s="3">
-        <v>187670</v>
+        <v>3075646</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>2021</v>
       </c>
       <c r="B7" s="3">
-        <v>184611</v>
-      </c>
-      <c r="C7" s="3">
-        <v>184846</v>
-      </c>
-      <c r="D7" s="3">
-        <v>185067</v>
-      </c>
-      <c r="E7" s="3">
-        <v>185271</v>
-      </c>
-      <c r="F7" s="3">
-        <v>185456</v>
-      </c>
-      <c r="G7" s="3">
-        <v>185620</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <v>240116</v>
-      </c>
-      <c r="C8" s="3">
-        <v>240607</v>
-      </c>
-      <c r="D8" s="3">
-        <v>241065</v>
-      </c>
-      <c r="E8" s="3">
-        <v>241484</v>
-      </c>
-      <c r="F8" s="3">
-        <v>241861</v>
-      </c>
-      <c r="G8" s="3">
-        <v>242188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <v>225737</v>
-      </c>
-      <c r="C9" s="3">
-        <v>226649</v>
-      </c>
-      <c r="D9" s="3">
-        <v>227495</v>
-      </c>
-      <c r="E9" s="3">
-        <v>228266</v>
-      </c>
-      <c r="F9" s="3">
-        <v>228953</v>
-      </c>
-      <c r="G9" s="3">
-        <v>229541</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
-        <v>170353</v>
-      </c>
-      <c r="C10" s="3">
-        <v>170605</v>
-      </c>
-      <c r="D10" s="3">
-        <v>170842</v>
-      </c>
-      <c r="E10" s="3">
-        <v>171062</v>
-      </c>
-      <c r="F10" s="3">
-        <v>171264</v>
-      </c>
-      <c r="G10" s="3">
-        <v>171444</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3">
-        <v>170163</v>
-      </c>
-      <c r="C11" s="3">
-        <v>170282</v>
-      </c>
-      <c r="D11" s="3">
-        <v>170394</v>
-      </c>
-      <c r="E11" s="3">
-        <v>170497</v>
-      </c>
-      <c r="F11" s="3">
-        <v>170592</v>
-      </c>
-      <c r="G11" s="3">
-        <v>170677</v>
+        <v>3078836</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3">
-        <v>189956</v>
-      </c>
-      <c r="C12" s="3">
-        <v>189986</v>
-      </c>
-      <c r="D12" s="3">
-        <v>190016</v>
-      </c>
-      <c r="E12" s="3">
-        <v>190046</v>
-      </c>
-      <c r="F12" s="3">
-        <v>190076</v>
-      </c>
-      <c r="G12" s="3">
-        <v>190105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3">
-        <v>213576</v>
-      </c>
-      <c r="C13" s="3">
-        <v>213914</v>
-      </c>
-      <c r="D13" s="3">
-        <v>214229</v>
-      </c>
-      <c r="E13" s="3">
-        <v>214518</v>
-      </c>
-      <c r="F13" s="3">
-        <v>214777</v>
-      </c>
-      <c r="G13" s="3">
-        <v>215002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3">
-        <v>235819</v>
-      </c>
-      <c r="C14" s="3">
-        <v>235967</v>
-      </c>
-      <c r="D14" s="3">
-        <v>236107</v>
-      </c>
-      <c r="E14" s="3">
-        <v>236238</v>
-      </c>
-      <c r="F14" s="3">
-        <v>236358</v>
-      </c>
-      <c r="G14" s="3">
-        <v>236468</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3">
-        <v>226884</v>
-      </c>
-      <c r="C15" s="3">
-        <v>226944</v>
-      </c>
-      <c r="D15" s="3">
-        <v>227003</v>
-      </c>
-      <c r="E15" s="3">
-        <v>227060</v>
-      </c>
-      <c r="F15" s="3">
-        <v>227115</v>
-      </c>
-      <c r="G15" s="3">
-        <v>227168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3">
-        <v>182390</v>
-      </c>
-      <c r="C16" s="3">
-        <v>182409</v>
-      </c>
-      <c r="D16" s="3">
-        <v>182427</v>
-      </c>
-      <c r="E16" s="3">
-        <v>182445</v>
-      </c>
-      <c r="F16" s="3">
-        <v>182465</v>
-      </c>
-      <c r="G16" s="3">
-        <v>182485</v>
-      </c>
+      <c r="G12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
